--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_06_beg.xlsx
@@ -1508,7 +1508,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="나이 든 기사"]  …...그리 간단한 일이 아니야, 마리아.
+    <t xml:space="preserve">[name="나이 든 기사"]  ……그리 간단한 일이 아니야, 마리아.
 </t>
   </si>
   <si>
@@ -1604,7 +1604,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="마리아"]  아.….. 음, 네……
+    <t xml:space="preserve">[name="마리아"]  아…… 음, 네……
 </t>
   </si>
   <si>
@@ -1740,7 +1740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="회색 붓꼬리의 기사"]  시끄러워 죽겠네…… 아파…..
+    <t xml:space="preserve">[name="회색 붓꼬리의 기사"]  시끄러워 죽겠네…… 아파……
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_06_beg.xlsx
@@ -1056,7 +1056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  “Think it through, look at all the difficulties you’ll face, and only then should you press on. ” When you figure that one out, go knock ‘em all the hell down for us old-timers to see.
+    <t xml:space="preserve">[name="Old Knight"]  'Think it through, look at all the difficulties you’ll face, and only then should you press on. ' When you figure that one out, go knock ‘em all the hell down for us old-timers to see.
 </t>
   </si>
   <si>
@@ -1224,7 +1224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  I can hardly even say “abandoned” is fair, my friend. When you buy an all-new intercity net-connected digital television, and you stow away your old radio into the cupboard, do you call that “abandoned?” 
+    <t xml:space="preserve">[name="Spokesman Czarny"]  I can hardly even say 'abandoned' is fair, my friend. When you buy an all-new intercity net-connected digital television, and you stow away your old radio into the cupboard, do you call that 'abandoned?' 
 </t>
   </si>
   <si>
@@ -1236,7 +1236,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  Don’t call me “friend” this or “friend” that. There’s not a single friend of yours here.
+    <t xml:space="preserve">[name="Old Knight"]  Don’t call me 'friend' this or 'friend' that. There’s not a single friend of yours here.
 </t>
   </si>
   <si>
@@ -1292,7 +1292,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  It’s three days from now, and your opponent will be the Left-hand Knight... “Left-hand” Tytus Topola.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  It’s three days from now, and your opponent will be the Left-hand Knight... 'Left-hand' Tytus Topola.
 </t>
   </si>
   <si>
@@ -1308,7 +1308,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  I’m sure Miss “Whislash” Zofia, and the Radiant Knight, far away wherever she is, will both be reassured.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  I’m sure Miss 'Whislash' Zofia, and the Radiant Knight, far away wherever she is, will both be reassured.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_06_beg.xlsx
@@ -996,19 +996,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  —What’s wrong, girl?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Not looking too good there. You and Zofia haven’t patched things up yet?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  I’m fine... Has Auntie been here again?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  She was pacing around right by the door, but then she left just a minute ago. She’s worried about you.
+    <t xml:space="preserve">[name="Old Craftsman"]  —What's wrong, girl?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  Not looking too good there. You and Zofia haven't patched things up yet?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  I'm fine... Has Auntie been here again?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  She was pacing around right by the door, but then she left just a minute ago. She's worried about you.
 </t>
   </si>
   <si>
@@ -1016,7 +1016,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  They’ve already decided my next opponent.
+    <t xml:space="preserve">[name="Maria"]  They've already decided my next opponent.
 </t>
   </si>
   <si>
@@ -1028,19 +1028,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  ...Things aren’t that simple, Maria.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Hey! Watch it, old boy, what’re you blabbering?  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  The reason Zofia doesn’t want you in the Major’s not just because she reckons you’ll lose or get hurt...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  The competition isn’t fair. See, the moment you set foot up higher, you’re up against more than just your opponents...
+    <t xml:space="preserve">[name="Old Knight"]  ...Things aren't that simple, Maria.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  Hey! Watch it, old boy, what're you blabbering?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  The reason Zofia doesn't want you in the Major's not just because she reckons you'll lose or get hurt...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  The competition isn't fair. See, the moment you set foot up higher, you're up against more than just your opponents...
 </t>
   </si>
   <si>
@@ -1048,15 +1048,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  Not even them Adeptus watchdogs’ll stick their hands in. Between the Knights Association, Grand Knight and all the directors, they make a three-way power tussle messier than you might ever imagine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Course, I wouldn’t tell you to give up, Maria.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  'Think it through, look at all the difficulties you’ll face, and only then should you press on. ' When you figure that one out, go knock ‘em all the hell down for us old-timers to see.
+    <t xml:space="preserve">[name="Old Knight"]  Not even them Adeptus watchdogs'll stick their hands in. Between the Knights Association, Grand Knight and all the directors, they make a three-way power tussle messier than you might ever imagine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Course, I wouldn't tell you to give up, Maria.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  'Think it through, look at all the difficulties you'll face, and only then should you press on. ' When you figure that one out, go knock 'em all the hell down for us old-timers to see.
 </t>
   </si>
   <si>
@@ -1064,7 +1064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  We’ve got a new face—
+    <t xml:space="preserve">[name="Bald Marcin"]  We've got a new face—
 </t>
   </si>
   <si>
@@ -1072,23 +1072,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  —You’re not welcome here. Kindly leave.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Don’t be so cold, my old friend, dear Tremoriron Knight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Your sacrifice brought a chronic heat to us all. I’m greatly respectful of your disposition within the arena. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Who the hell’re you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  ...The level-2 knight, Vogelweide... the former second-order knight. Or ought I be calling you Batbayar? I’m not sure if I’m pronouncing it correctly...  
+    <t xml:space="preserve">[name="Bald Marcin"]  —You're not welcome here. Kindly leave.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Don't be so cold, my old friend, dear Tremoriron Knight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Your sacrifice brought a chronic heat to us all. I'm greatly respectful of your disposition within the arena. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Who the hell're you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  ...The level-2 knight, Vogelweide... the former second-order knight. Or ought I be calling you Batbayar? I'm not sure if I'm pronouncing it correctly...  
 </t>
   </si>
   <si>
@@ -1096,7 +1096,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Ooh, no, no, let’s not bring the daggers out. I’m certainly no knight, merely an assiduous civil servant...
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Ooh, no, no, let's not bring the daggers out. I'm certainly no knight, merely an assiduous civil servant...
 </t>
   </si>
   <si>
@@ -1104,7 +1104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  ...If I had my bow on hand, you wouldn’t dare talk to me like that.
+    <t xml:space="preserve">[name="Old Knight"]  ...If I had my bow on hand, you wouldn't dare talk to me like that.
 </t>
   </si>
   <si>
@@ -1116,7 +1116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  ...I’m a mere working stiff. As is natural, I’m here to relay to Miss Maria Nearl some arrangements the Knights Association have made.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  ...I'm a mere working stiff. As is natural, I'm here to relay to Miss Maria Nearl some arrangements the Knights Association have made.
 </t>
   </si>
   <si>
@@ -1136,11 +1136,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  True, but I do prefer to handle things personally. It is the only way I ensure I have an exact grasp on all manner of matters that may arise in the workflow... Of course, there’s a selfish element as well.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  I can hardly contain my curiosity regarding the sister of the Radiant Knight Margaret Nearl. The young knight who’s all the rage.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  True, but I do prefer to handle things personally. It is the only way I ensure I have an exact grasp on all manner of matters that may arise in the workflow... Of course, there's a selfish element as well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  I can hardly contain my curiosity regarding the sister of the Radiant Knight Margaret Nearl. The young knight who's all the rage.
 </t>
   </si>
   <si>
@@ -1156,11 +1156,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  We’re long sick of your sales pitch. Maria here takes things her own way.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Hear, hear! You’ve taken all the glory out of knighthood. It’s profane! 
+    <t xml:space="preserve">[name="Bald Marcin"]  We're long sick of your sales pitch. Maria here takes things her own way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Hear, hear! You've taken all the glory out of knighthood. It's profane! 
 </t>
   </si>
   <si>
@@ -1196,15 +1196,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  Kazimierz can’t even remember what the past—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  —Past glory, the spirit of knighthood, ah—the great transcendental soul! The sun that beamed in history’s hollows! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Do I have that right? But neither spectator nor tourist need spirit, and it’s hardly necessary for us to make a show of it for them. 
+    <t xml:space="preserve">[name="Old Knight"]  Kazimierz can't even remember what the past—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  —Past glory, the spirit of knighthood, ah—the great transcendental soul! The sun that beamed in history's hollows! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Do I have that right? But neither spectator nor tourist need spirit, and it's hardly necessary for us to make a show of it for them. 
 </t>
   </si>
   <si>
@@ -1212,7 +1212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Ah, let’s not be so hasty. Glory, yes, what a wonderful thing, what an impeccable thing, and still it exists upon every knight family’s crest— 
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Ah, let's not be so hasty. Glory, yes, what a wonderful thing, what an impeccable thing, and still it exists upon every knight family's crest— 
 </t>
   </si>
   <si>
@@ -1228,7 +1228,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Rather, it’s forgotten. Not the kind that carries a spiteful meaning. It is the pure kind of forgetting, the one that results from the progress that scientific advancement and new modes of life bring. 
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Rather, it's forgotten. Not the kind that carries a spiteful meaning. It is the pure kind of forgetting, the one that results from the progress that scientific advancement and new modes of life bring. 
 </t>
   </si>
   <si>
@@ -1236,11 +1236,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  Don’t call me 'friend' this or 'friend' that. There’s not a single friend of yours here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  Finish up fast and trot on home. Maria isn’t on display here.
+    <t xml:space="preserve">[name="Old Knight"]  Don't call me 'friend' this or 'friend' that. There's not a single friend of yours here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  Finish up fast and trot on home. Maria isn't on display here.
 </t>
   </si>
   <si>
@@ -1260,7 +1260,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ashlock Knight"]  Ggh, it’s so loud... shit hurts...
+    <t xml:space="preserve">[name="Ashlock Knight"]  Ggh, it's so loud... shit hurts...
 </t>
   </si>
   <si>
@@ -1272,11 +1272,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonna"]  They haven’t caught up with us yet... What street are we on, even?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ashlock Knight"]  There’s... their breath, from the front! Turn left!
+    <t xml:space="preserve">[name="Sonna"]  They haven't caught up with us yet... What street are we on, even?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ashlock Knight"]  There's... their breath, from the front! Turn left!
 </t>
   </si>
   <si>
@@ -1284,15 +1284,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  ...When’s the next match?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Oh, my apologies, I’d almost forgotten what I was here for.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  It’s three days from now, and your opponent will be the Left-hand Knight... 'Left-hand' Tytus Topola.
+    <t xml:space="preserve">[name="Maria"]  ...When's the next match?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Oh, my apologies, I'd almost forgotten what I was here for.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  It's three days from now, and your opponent will be the Left-hand Knight... 'Left-hand' Tytus Topola.
 </t>
   </si>
   <si>
@@ -1300,7 +1300,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  As a sidenote, Miss Maria, if you accept any of the Knightclub proposals I’ve put forward to you, then even supposing you have no luck in the Major—
+    <t xml:space="preserve">[name="Spokesman Czarny"]  As a sidenote, Miss Maria, if you accept any of the Knightclub proposals I've put forward to you, then even supposing you have no luck in the Major—
 </t>
   </si>
   <si>
@@ -1308,7 +1308,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  I’m sure Miss 'Whislash' Zofia, and the Radiant Knight, far away wherever she is, will both be reassured.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  I'm sure Miss 'Whislash' Zofia, and the Radiant Knight, far away wherever she is, will both be reassured.
 </t>
   </si>
   <si>
@@ -1316,11 +1316,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  I’ll make Kazimierz recognize the Nearl family. I won’t let all my ancestors’ efforts go to waste. I WILL prove that the Nearl family deserves its knighthood!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Well, well, you’ll prove... in the competition... Tell me, will you prove?
+    <t xml:space="preserve">[name="Maria"]  I'll make Kazimierz recognize the Nearl family. I won't let all my ancestors' efforts go to waste. I WILL prove that the Nearl family deserves its knighthood!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Well, well, you'll prove... in the competition... Tell me, will you prove?
 </t>
   </si>
   <si>
@@ -1344,11 +1344,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  I’m sorry, please wait a moment.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  Hello? Speaking. What? No, I’m currently... Right, I understand. Please, don’t worry.   
+    <t xml:space="preserve">[name="Spokesman Czarny"]  I'm sorry, please wait a moment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Spokesman Czarny"]  Hello? Speaking. What? No, I'm currently... Right, I understand. Please, don't worry.   
 </t>
   </si>
   <si>
@@ -1356,7 +1356,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spokesman Czarny"]  And to you, gentlemen, pardon the offense I’ve caused, and I hope you have a pleasant evening.
+    <t xml:space="preserve">[name="Spokesman Czarny"]  And to you, gentlemen, pardon the offense I've caused, and I hope you have a pleasant evening.
 </t>
   </si>
   <si>
@@ -1372,11 +1372,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Say, V... Why’d he know your...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  ...I’d like to know myself. Since my grandpappy passed on, been the better half of a century since I heard a soul call my old name. 
+    <t xml:space="preserve">[name="Old Craftsman"]  Say, V... Why'd he know your...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  ...I'd like to know myself. Since my grandpappy passed on, been the better half of a century since I heard a soul call my old name. 
 </t>
   </si>
   <si>
@@ -1388,11 +1388,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Someone might’ve already started making moves.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Don’t look like that, Maria. You’re not alone here. We owe a hell of a lot to your old Grandpa Nearl. We’re all— 
+    <t xml:space="preserve">[name="Bald Marcin"]  Someone might've already started making moves.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Bald Marcin"]  Don't look like that, Maria. You're not alone here. We owe a hell of a lot to your old Grandpa Nearl. We're all— 
 </t>
   </si>
   <si>
@@ -1404,7 +1404,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sonna"]  Nearl...? Uh, let’s make this quick—could you help us out here a bit? 
+    <t xml:space="preserve">[name="Sonna"]  Nearl...? Uh, let's make this quick—could you help us out here a bit? 
 </t>
   </si>
   <si>
@@ -1420,7 +1420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  Maria, you look after the wounded. Don’t need to worry about anything else.
+    <t xml:space="preserve">[name="Bald Marcin"]  Maria, you look after the wounded. Don't need to worry about anything else.
 </t>
   </si>
   <si>
@@ -1428,7 +1428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Here’s your bow, you old bones!
+    <t xml:space="preserve">[name="Old Craftsman"]  Here's your bow, you old bones!
 </t>
   </si>
   <si>
@@ -1444,15 +1444,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Knight"]  ...They didn’t come with.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Craftsman"]  Pfah. Who’re we dealing with? Who sics themselves on competition knights in broad daylight? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Knight"]  That kid’s an Infected. Let’s go see what’s what. Might need more than just Maria for this.
+    <t xml:space="preserve">[name="Old Knight"]  ...They didn't come with.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Craftsman"]  Pfah. Who're we dealing with? Who sics themselves on competition knights in broad daylight? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Knight"]  That kid's an Infected. Let's go see what's what. Might need more than just Maria for this.
 </t>
   </si>
   <si>
@@ -1460,7 +1460,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bald Marcin"]  …On my way.
+    <t xml:space="preserve">[name="Bald Marcin"]  ...On my way.
 </t>
   </si>
   <si>
